--- a/Testing_of_TimeOff.Management.xlsx
+++ b/Testing_of_TimeOff.Management.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="607">
   <si>
     <t>Project</t>
   </si>
@@ -2238,6 +2238,296 @@
   </si>
   <si>
     <t>The password field should be case sensitive</t>
+  </si>
+  <si>
+    <t>Valid email: pklaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaas0@ezinearticles.com (local part = 64 symbols (max))</t>
+  </si>
+  <si>
+    <t>Valid password: "sU888888)PfffD+g" (16 symbols (max))</t>
+  </si>
+  <si>
+    <t>Valid email: pklaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaas0@ezinearticles.com (local part = 63 symbols (should be &lt;=64))</t>
+  </si>
+  <si>
+    <t>Valid email: pklaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaas0@ezinearticles.com (local part = 65 symbols (should be &lt;=64))</t>
+  </si>
+  <si>
+    <t>Valid password: "sU88888)PfffD+g" (15 symbols (should be &lt;=16))</t>
+  </si>
+  <si>
+    <t>Valid password: "sU8888888)PfffD+g" (17 symbols (should be &lt;=16))</t>
+  </si>
+  <si>
+    <t>Valid password: "sU8)PD+g" (8 symbols (should be &gt;=8))</t>
+  </si>
+  <si>
+    <t>Valid password: "sU8)P+g" (7 symbols (should be &gt;=8))</t>
+  </si>
+  <si>
+    <t>Valid password: "sU8)PdD+g" (9 symbols (should be &gt;=8))</t>
+  </si>
+  <si>
+    <t>Valid email: p@ezinearticles.com (local part = 1 symbol (should be &gt;=1))</t>
+  </si>
+  <si>
+    <t>Valid email: p@ezinearticles.com (local part = 2 symbols (should be &gt;=1))</t>
+  </si>
+  <si>
+    <t>Valid email: @ezinearticles.com (local part is empty (should be &gt;=1))</t>
+  </si>
+  <si>
+    <t>TOM_TC_63</t>
+  </si>
+  <si>
+    <t>Verify that user can login with the maximum length email (local part) - 64 symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can login with an email length (local part) 63 symbols </t>
+  </si>
+  <si>
+    <t>TOM_TC_64</t>
+  </si>
+  <si>
+    <t>TOM_TC_65</t>
+  </si>
+  <si>
+    <t>Verify that user can login with the maximum length password - 16 symbols</t>
+  </si>
+  <si>
+    <t>TOM_TC_66</t>
+  </si>
+  <si>
+    <t>TOM_TC_67</t>
+  </si>
+  <si>
+    <t>TOM_TC_68</t>
+  </si>
+  <si>
+    <t>Verify that user can login with a password length - 15 symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can't login with a password length - 17 symbols </t>
+  </si>
+  <si>
+    <t>Verify that user can login with a password length - 9 symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can't login with a password length - 7 symbols </t>
+  </si>
+  <si>
+    <t>Verify that user can login with the minimum email length (local part) - 1 symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can login with an email length (local part) - 2 symbols </t>
+  </si>
+  <si>
+    <t>TOM12
+TOM15</t>
+  </si>
+  <si>
+    <t>Verify that user can login with the minimum password length - 8 symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page https://app.timeoff.management/register/ is open. 
+2. Register new company account with common valid data:
+Company Name:  "Jonson"
+First Name: "Anna"
+Email Address: "pklaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaas0@ezinearticles.com"
+Password: "Pj2$1234"
+3. Logout
+4. The page https://app.timeoff.management/login is open. </t>
+  </si>
+  <si>
+    <t>1. Fill all the fields with correct data:
+Email Address: "pklaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaas0@ezinearticles.com"
+Password: "Pj2$1234"
+2. Submit the form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page https://app.timeoff.management/register/ is open. 
+2. Register new company account with common valid data:
+Company Name:  "Jonson"
+First Name: "Anna"
+Email Address: "pklaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaas0@ezinearticles.com"
+Password: "Pj2$1234"
+3. Logout
+4. The page https://app.timeoff.management/login is open. </t>
+  </si>
+  <si>
+    <t>1. Fill all the fields with correct data:
+Email Address: "pklaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaas0@ezinearticles.com"
+Password: "Pj2$1234"
+2. Submit the form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page https://app.timeoff.management/register/ is open. 
+2. Register new company account with common valid data:
+Company Name:  "Jonson"
+First Name: "Anna"
+Email Address: "sjeste1@bluehost.com"
+Password: "sU8)P+g"
+3. Logout
+4. The page https://app.timeoff.management/login is open. </t>
+  </si>
+  <si>
+    <t>1. Fill all the fields with correct data:
+Email Address: "sjeste1@bluehost.com"
+Password: "sU8)P+g"
+2. Submit the form</t>
+  </si>
+  <si>
+    <t>The registration is succesfull when shouldn't be
+The login is succesfull
+*Delete the created company after the test https://app.timeoff.management/spa/settings/general/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page https://app.timeoff.management/register/ is open. 
+2. Register new company account with common valid data:
+Company Name:  "Jonson"
+First Name: "Anna"
+Email Address: "sjeste1@bluehost.com"
+Password: "sU888888)PfffD+g"
+3. Logout
+4. The page https://app.timeoff.management/login is open. </t>
+  </si>
+  <si>
+    <t>1. Fill all the fields with correct data:
+Email Address: "sjeste1@bluehost.com"
+Password: "sU888888)PfffD+g"
+2. Submit the form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page https://app.timeoff.management/register/ is open. 
+2. Register new company account with common valid data:
+Company Name:  "Jonson"
+First Name: "Anna"
+Email Address: "sjeste1@bluehost.com"
+Password: "sU88888)PfffD+g"
+3. Logout
+4. The page https://app.timeoff.management/login is open. </t>
+  </si>
+  <si>
+    <t>1. Fill all the fields with correct data:
+Email Address: "sjeste1@bluehost.com"
+Password: "sU88888)PfffD+g"
+2. Submit the form</t>
+  </si>
+  <si>
+    <t>1. Fill all the fields with correct data:
+Email Address: "sjeste1@bluehost.com"
+Password: "sU8888888)PfffD+g"
+2. Submit the form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page https://app.timeoff.management/register/ is open. 
+2. Register new company account with common valid data:
+Company Name:  "Jonson"
+First Name: "Anna"
+Email Address: "sjeste1@bluehost.com"
+Password: "sU8888888)PfffD+g"
+3. Logout
+4. The page https://app.timeoff.management/login is open. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page https://app.timeoff.management/register/ is open. 
+2. Register new company account with common valid data:
+Company Name:  "Jonson"
+First Name: "Anna"
+Email Address: "s@bluehost.com"
+Password: "sU8)PfffD+g"
+3. Logout
+4. The page https://app.timeoff.management/login is open. </t>
+  </si>
+  <si>
+    <t>1. Fill all the fields with correct data:
+Email Address: "s@bluehost.com"
+Password: "sU8)PfffD+g"
+2. Submit the form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page https://app.timeoff.management/register/ is open. 
+2. Register new company account with common valid data:
+Company Name:  "Jonson"
+First Name: "Anna"
+Email Address: "p@ezinearticles.com"
+Password: "sU8)PfffD+g"
+3. Logout
+4. The page https://app.timeoff.management/login is open. </t>
+  </si>
+  <si>
+    <t>1. Fill all the fields with correct data:
+Email Address: "p@ezinearticles.com"
+Password: "sU8)PfffD+g"
+2. Submit the form</t>
+  </si>
+  <si>
+    <t>TOM_TC_69</t>
+  </si>
+  <si>
+    <t>TOM_TC_70</t>
+  </si>
+  <si>
+    <t>TOM_TC_71</t>
+  </si>
+  <si>
+    <t>1. Fill all the fields with correct data:
+Email Address: "ezin@ezinearticles.com"
+Password: "sU8)PdD+g"
+2. Submit the form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page https://app.timeoff.management/register/ is open. 
+2. Register new company account with common valid data:
+Company Name:  "Jonson"
+First Name: "Anna"
+Email Address: "ezin@ezinearticles.com"
+Password: "sU8)PdD+g"
+3. Logout
+4. The page https://app.timeoff.management/login is open. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page https://app.timeoff.management/register/ is open. 
+2. Register new company account with common valid data:
+Company Name:  "Jonson"
+First Name: "Anna"
+Email Address: "ezin@ezinearticles.com"
+Password: "sU8)PdD+"
+3. Logout
+4. The page https://app.timeoff.management/login is open. </t>
+  </si>
+  <si>
+    <t>1. Fill all the fields with correct data:
+Email Address: "ezin@ezinearticles.com"
+Password: "sU8)PdD+"
+2. Submit the form</t>
+  </si>
+  <si>
+    <t>Verify that there is a length limit for the password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The page https://app.timeoff.management/register/ is open. 
+2. Register new company account with common valid data:
+Company Name:  "Jonson"
+First Name: "Anna"
+Email Address: "jbraziern@amazonaws.com"
+Password: "ArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestinggggggggggggggggg" (1600 symbols)
+3. Logout
+4. The page https://app.timeoff.management/login is open. </t>
+  </si>
+  <si>
+    <t>1. Fill all the fields with correct data:
+Email Address: "jbraziern@amazonaws.com"
+Password: "ArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestingArtOfTestinggggggggggggggggg" (1600 symbols)
+2. Submit the form</t>
+  </si>
+  <si>
+    <t>The app doesn't let use such a long length password - 1600 symbols</t>
+  </si>
+  <si>
+    <t>TOM_TC_72</t>
+  </si>
+  <si>
+    <t>TOM_TC_73</t>
   </si>
 </sst>
 </file>
@@ -3291,6 +3581,15 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="39" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3299,15 +3598,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3389,167 +3679,7 @@
     <cellStyle name="Текст предупреждения" xfId="10" builtinId="11"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="268">
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="252">
     <dxf>
       <fill>
         <patternFill>
@@ -6263,9 +6393,9 @@
   <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
+      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6283,89 +6413,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71">
         <v>45558</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="75" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
@@ -6416,7 +6546,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="50" customFormat="1" ht="346.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="65" t="s">
@@ -6451,7 +6581,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="65" t="s">
         <v>413</v>
       </c>
@@ -6480,7 +6610,7 @@
       <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:11" s="50" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="65" t="s">
         <v>413</v>
       </c>
@@ -6509,7 +6639,7 @@
       <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="65" t="s">
         <v>413</v>
       </c>
@@ -6538,7 +6668,7 @@
       <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="65" t="s">
         <v>413</v>
       </c>
@@ -6567,7 +6697,7 @@
       <c r="K12" s="52"/>
     </row>
     <row r="13" spans="1:11" s="50" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="65" t="s">
         <v>413</v>
       </c>
@@ -6596,7 +6726,7 @@
       <c r="K13" s="52"/>
     </row>
     <row r="14" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="65" t="s">
         <v>413</v>
       </c>
@@ -6625,7 +6755,7 @@
       <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="65" t="s">
         <v>413</v>
       </c>
@@ -6654,7 +6784,7 @@
       <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="65" t="s">
         <v>413</v>
       </c>
@@ -6683,7 +6813,7 @@
       <c r="K16" s="52"/>
     </row>
     <row r="17" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="65" t="s">
         <v>413</v>
       </c>
@@ -6712,7 +6842,7 @@
       <c r="K17" s="52"/>
     </row>
     <row r="18" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="65" t="s">
         <v>413</v>
       </c>
@@ -6741,7 +6871,7 @@
       <c r="K18" s="52"/>
     </row>
     <row r="19" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="65" t="s">
         <v>413</v>
       </c>
@@ -6770,7 +6900,7 @@
       <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="65" t="s">
         <v>413</v>
       </c>
@@ -6799,7 +6929,7 @@
       <c r="K20" s="52"/>
     </row>
     <row r="21" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="65" t="s">
         <v>413</v>
       </c>
@@ -6828,7 +6958,7 @@
       <c r="K21" s="52"/>
     </row>
     <row r="22" spans="1:11" s="50" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="65" t="s">
         <v>413</v>
       </c>
@@ -6857,7 +6987,7 @@
       <c r="K22" s="52"/>
     </row>
     <row r="23" spans="1:11" s="50" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="65" t="s">
         <v>413</v>
       </c>
@@ -6886,7 +7016,7 @@
       <c r="K23" s="52"/>
     </row>
     <row r="24" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="65" t="s">
         <v>413</v>
       </c>
@@ -6915,7 +7045,7 @@
       <c r="K24" s="52"/>
     </row>
     <row r="25" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="65" t="s">
         <v>413</v>
       </c>
@@ -6944,7 +7074,7 @@
       <c r="K25" s="52"/>
     </row>
     <row r="26" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="65" t="s">
         <v>413</v>
       </c>
@@ -6973,7 +7103,7 @@
       <c r="K26" s="52"/>
     </row>
     <row r="27" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="65" t="s">
         <v>413</v>
       </c>
@@ -7002,7 +7132,7 @@
       <c r="K27" s="52"/>
     </row>
     <row r="28" spans="1:11" s="50" customFormat="1" ht="189.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="71"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="68" t="s">
         <v>413</v>
       </c>
@@ -7031,7 +7161,7 @@
       <c r="K28" s="58"/>
     </row>
     <row r="29" spans="1:11" s="50" customFormat="1" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="71"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="66" t="s">
         <v>204</v>
       </c>
@@ -7064,7 +7194,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="50" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="66" t="s">
         <v>275</v>
       </c>
@@ -7097,7 +7227,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="50" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="71"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="66" t="s">
         <v>276</v>
       </c>
@@ -7128,7 +7258,7 @@
       <c r="K31" s="52"/>
     </row>
     <row r="32" spans="1:11" s="50" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="66" t="s">
         <v>283</v>
       </c>
@@ -7159,7 +7289,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="50" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="65" t="s">
         <v>295</v>
       </c>
@@ -7190,7 +7320,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="50" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="65" t="s">
         <v>302</v>
       </c>
@@ -7223,7 +7353,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="50" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="65" t="s">
         <v>302</v>
       </c>
@@ -7256,7 +7386,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="50" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="65" t="s">
         <v>302</v>
       </c>
@@ -7287,7 +7417,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="50" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="65" t="s">
         <v>314</v>
       </c>
@@ -7320,7 +7450,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" s="50" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="65" t="s">
         <v>319</v>
       </c>
@@ -7353,7 +7483,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="50" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="65" t="s">
         <v>319</v>
       </c>
@@ -7386,7 +7516,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="50" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="65" t="s">
         <v>319</v>
       </c>
@@ -7417,7 +7547,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="50" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="65" t="s">
         <v>319</v>
       </c>
@@ -7448,7 +7578,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" s="50" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="65" t="s">
         <v>319</v>
       </c>
@@ -7479,7 +7609,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" s="50" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="65" t="s">
         <v>319</v>
       </c>
@@ -7512,7 +7642,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" s="50" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="65" t="s">
         <v>319</v>
       </c>
@@ -7543,7 +7673,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="50" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="65" t="s">
         <v>319</v>
       </c>
@@ -7574,7 +7704,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" s="50" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
+      <c r="A46" s="74"/>
       <c r="B46" s="65" t="s">
         <v>359</v>
       </c>
@@ -7605,7 +7735,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" s="50" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="65" t="s">
         <v>359</v>
       </c>
@@ -7636,7 +7766,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" s="50" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="65" t="s">
         <v>359</v>
       </c>
@@ -7667,7 +7797,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" s="50" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="65" t="s">
         <v>359</v>
       </c>
@@ -7698,7 +7828,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" s="50" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="65" t="s">
         <v>359</v>
       </c>
@@ -7729,7 +7859,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" s="50" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="65" t="s">
         <v>379</v>
       </c>
@@ -7760,7 +7890,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" s="50" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="65" t="s">
         <v>76</v>
       </c>
@@ -7791,7 +7921,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" s="50" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="65" t="s">
         <v>76</v>
       </c>
@@ -7822,7 +7952,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" s="50" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="65" t="s">
         <v>77</v>
       </c>
@@ -7853,7 +7983,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" s="50" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
+      <c r="A55" s="74"/>
       <c r="B55" s="65" t="s">
         <v>83</v>
       </c>
@@ -7882,7 +8012,7 @@
       <c r="K55" s="52"/>
     </row>
     <row r="56" spans="1:11" s="50" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="65" t="s">
         <v>87</v>
       </c>
@@ -7911,7 +8041,7 @@
       <c r="K56" s="52"/>
     </row>
     <row r="57" spans="1:11" s="50" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
+      <c r="A57" s="74"/>
       <c r="B57" s="65" t="s">
         <v>81</v>
       </c>
@@ -7940,7 +8070,7 @@
       <c r="K57" s="52"/>
     </row>
     <row r="58" spans="1:11" s="50" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="65" t="s">
         <v>26</v>
       </c>
@@ -7969,7 +8099,7 @@
       <c r="K58" s="52"/>
     </row>
     <row r="59" spans="1:11" s="50" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="65" t="s">
         <v>417</v>
       </c>
@@ -8000,7 +8130,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" s="50" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="72"/>
+      <c r="A60" s="75"/>
       <c r="B60" s="65" t="s">
         <v>417</v>
       </c>
@@ -8293,153 +8423,335 @@
       <c r="J69" s="52"/>
       <c r="K69" s="52"/>
     </row>
-    <row r="70" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="50" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
+      <c r="B70" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>561</v>
+      </c>
+      <c r="E70" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>578</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="I70" s="52" t="s">
+        <v>500</v>
+      </c>
       <c r="J70" s="52"/>
       <c r="K70" s="52"/>
     </row>
-    <row r="71" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="50" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
+      <c r="B71" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="E71" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>579</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="I71" s="52" t="s">
+        <v>500</v>
+      </c>
       <c r="J71" s="52"/>
       <c r="K71" s="52"/>
     </row>
-    <row r="72" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="50" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
+      <c r="B72" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>572</v>
+      </c>
+      <c r="E72" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="G72" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="H72" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="I72" s="52" t="s">
+        <v>583</v>
+      </c>
       <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-    </row>
-    <row r="73" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72" s="65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="50" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
+      <c r="B73" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>566</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="E73" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="G73" s="52" t="s">
+        <v>585</v>
+      </c>
+      <c r="H73" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="I73" s="52" t="s">
+        <v>500</v>
+      </c>
       <c r="J73" s="52"/>
       <c r="K73" s="52"/>
     </row>
-    <row r="74" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="50" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
+      <c r="B74" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="E74" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="52" t="s">
+        <v>586</v>
+      </c>
+      <c r="G74" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="H74" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="I74" s="52" t="s">
+        <v>500</v>
+      </c>
       <c r="J74" s="52"/>
       <c r="K74" s="52"/>
     </row>
-    <row r="75" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="50" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
+      <c r="B75" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>568</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="E75" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="H75" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="I75" s="52" t="s">
+        <v>583</v>
+      </c>
       <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-    </row>
-    <row r="76" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="50" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A76" s="52"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
+      <c r="B76" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>573</v>
+      </c>
+      <c r="E76" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="G76" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="H76" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="I76" s="52" t="s">
+        <v>500</v>
+      </c>
       <c r="J76" s="52"/>
       <c r="K76" s="52"/>
     </row>
-    <row r="77" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="50" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A77" s="52"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
+      <c r="B77" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>595</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="E77" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="G77" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="H77" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="I77" s="52" t="s">
+        <v>500</v>
+      </c>
       <c r="J77" s="52"/>
       <c r="K77" s="52"/>
     </row>
-    <row r="78" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="50" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="52"/>
+      <c r="B78" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>596</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="E78" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="52" t="s">
+        <v>598</v>
+      </c>
+      <c r="G78" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="H78" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="I78" s="52" t="s">
+        <v>500</v>
+      </c>
       <c r="J78" s="52"/>
       <c r="K78" s="52"/>
     </row>
-    <row r="79" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="50" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
+      <c r="B79" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>605</v>
+      </c>
+      <c r="D79" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="E79" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="G79" s="52" t="s">
+        <v>600</v>
+      </c>
+      <c r="H79" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="I79" s="52" t="s">
+        <v>500</v>
+      </c>
       <c r="J79" s="52"/>
       <c r="K79" s="52"/>
     </row>
-    <row r="80" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="50" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
+      <c r="B80" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>606</v>
+      </c>
+      <c r="D80" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="E80" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="52" t="s">
+        <v>602</v>
+      </c>
+      <c r="G80" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="H80" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="I80" s="52" t="s">
+        <v>500</v>
+      </c>
       <c r="J80" s="52"/>
-      <c r="K80" s="52"/>
-    </row>
-    <row r="81" spans="1:11" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K80" s="65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="52"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="52"/>
       <c r="E81" s="53"/>
       <c r="F81" s="52"/>
@@ -8817,879 +9129,879 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
     <mergeCell ref="A8:A60"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
   </mergeCells>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="267" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="327" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="328" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="265" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="325" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="326" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="263" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="249" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="250" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="261" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="235" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="236" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="259" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="229" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="230" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="251" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="219" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="220" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="249" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="217" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="218" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="247" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="215" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="216" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="245" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="213" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="214" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="243" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="211" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="212" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="241" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="209" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="210" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="239" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="207" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="208" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="237" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="205" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="206" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="235" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="203" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="204" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="233" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="201" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="202" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="231" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="199" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="200" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="229" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="197" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="198" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="227" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="195" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="196" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="225" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="193" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="194" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="223" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="191" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="192" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="221" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="189" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="190" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="219" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="187" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="188" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="217" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="185" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="186" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="215" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="183" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="184" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="213" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="181" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="182" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="211" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="179" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="180" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="209" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="177" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="178" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="207" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="175" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="176" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="205" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="173" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="174" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="203" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="171" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="172" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="201" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="169" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="170" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="199" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="167" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="168" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="197" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="165" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="166" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="195" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="163" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="164" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="193" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="161" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="162" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="191" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="159" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="160" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="189" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="157" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="158" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="187" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="155" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="156" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="185" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="153" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="154" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="183" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="151" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="152" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="181" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="149" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="150" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="179" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="147" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="148" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="177" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="145" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="146" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="175" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="143" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="144" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="173" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="141" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="142" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="171" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="139" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="140" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="169" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="137" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="138" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="167" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="135" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="136" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="165" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="133" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="134" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="163" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="131" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="132" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="161" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="129" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="130" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="159" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="127" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="128" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="157" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="125" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="126" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="155" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="123" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="124" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="153" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="121" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="122" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="151" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="119" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="120" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="149" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="117" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="118" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="147" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="115" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="116" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="145" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="113" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="114" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="143" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="111" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="112" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="141" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="99" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="100" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="139" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="103" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="104" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="137" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="107" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="108" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="135" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="105" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="106" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="133" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="93" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="94" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="131" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="101" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="102" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="129" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="97" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="98" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="127" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="95" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="96" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="125" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="91" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="92" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="123" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="83" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="84" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="121" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="81" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="82" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="119" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="79" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="80" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="117" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="77" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="78" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="115" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="75" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="76" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="113" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="73" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="74" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="111" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="71" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="72" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="109" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="69" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="70" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="107" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="67" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="68" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="105" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="65" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="66" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="103" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="63" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="64" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="101" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="61" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="62" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="99" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="59" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="60" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="97" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="57" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="58" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="95" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="55" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="56" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="93" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="53" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="54" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="91" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="51" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="52" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="49" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="50" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="47" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="48" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="85" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="45" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="46" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="83" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="43" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="44" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="81" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="41" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="42" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="77" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="36" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="75" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="33" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="34" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="73" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="71" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="69" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="27" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="28" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="67" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="19" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="20" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="61" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="59" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9798,6 +10110,20 @@
     <hyperlink ref="B68" location="Requirements!B37" display="TOM30"/>
     <hyperlink ref="B67" location="Requirements!B37" display="TOM30"/>
     <hyperlink ref="B66" location="Requirements!B37" display="TOM30"/>
+    <hyperlink ref="B70" location="Requirements!B19" display="Requirements!B19"/>
+    <hyperlink ref="B71" location="Requirements!B19" display="Requirements!B19"/>
+    <hyperlink ref="B73" location="Requirements!B19" display="Requirements!B19"/>
+    <hyperlink ref="B74" location="Requirements!B19" display="Requirements!B19"/>
+    <hyperlink ref="B75" location="Requirements!B19" display="Requirements!B19"/>
+    <hyperlink ref="B76" location="Requirements!B19" display="Requirements!B19"/>
+    <hyperlink ref="B77" location="Requirements!B19" display="Requirements!B19"/>
+    <hyperlink ref="B78" location="Requirements!B19" display="Requirements!B19"/>
+    <hyperlink ref="B79" location="Requirements!B19" display="Requirements!B19"/>
+    <hyperlink ref="B72" location="Requirements!B19" display="Requirements!B19"/>
+    <hyperlink ref="B80" location="Requirements!B22" display="TOM15"/>
+    <hyperlink ref="K72" location="'Bag reports'!A14" display="BR2"/>
+    <hyperlink ref="K75" location="'Bag reports'!A14" display="BR2"/>
+    <hyperlink ref="K80" location="'Bag reports'!A14" display="BR2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -9810,8 +10136,8 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -10533,8 +10859,8 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -11884,128 +12210,128 @@
     <mergeCell ref="E3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="47" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="43" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12035,7 +12361,7 @@
   <dimension ref="A3:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12527,10 +12853,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист21"/>
-  <dimension ref="A3:B13"/>
+  <dimension ref="A3:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12623,6 +12949,54 @@
       </c>
       <c r="B13" s="15" t="s">
         <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_of_TimeOff.Management.xlsx
+++ b/Testing_of_TimeOff.Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18720" windowHeight="7245"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18720" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="1" r:id="rId1"/>
@@ -6392,7 +6392,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
@@ -10135,9 +10135,9 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/Testing_of_TimeOff.Management.xlsx
+++ b/Testing_of_TimeOff.Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18720" windowHeight="7245" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18720" windowHeight="7245" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <definedName name="Status">'Meta data'!$A$2:$A$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="781">
   <si>
     <t>Project</t>
   </si>
@@ -2957,34 +2956,13 @@
     <t>It’s advisable to implement an inactivity timeout or end sessions on browser close. This keeps the application secure and respects users’ privacy. For example, add “Remember Me” options for users. It's the best practices.</t>
   </si>
   <si>
-    <t>Administrator has access to the whole company set up</t>
-  </si>
-  <si>
     <t>The first administrator's account (creator) uses the credentials (first name, email address and password) used for the registration the company's account</t>
   </si>
   <si>
-    <t>EH10</t>
-  </si>
-  <si>
     <t>The admin's rights system is inconsistent</t>
   </si>
   <si>
-    <t>There are tree types of user roles (administrator, superwiser, common user), but the first administrator who created the company accaunt has more rights then others administrators who were assigned by the first one. Requests from users without supewisers handle by the administrator-creator and ther administrators doesn't see the requests). At the same time the new assigned administrators have rights to delete the company, for example.</t>
-  </si>
-  <si>
     <t>BR11</t>
-  </si>
-  <si>
-    <t>Inactive user has an access to the account's functionality while he didn't log out</t>
-  </si>
-  <si>
-    <t>In the two differents browsers log in the admin's accaunt and the other  user's accout.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. In the admin's account open the employee details clicking on the second user's name (right sidebar is open)
-2.  Switch on the edit mode clicking on the pencil icon
-3. Set as the end of employment the passed date and save the changes
-4. Open the other account (inactivated) and make new absence </t>
   </si>
   <si>
     <t>The user's account has the inactive status and hasn't an access to the app's functionality</t>
@@ -3023,12 +3001,6 @@
     <t>https://drive.google.com/file/d/1I8VPNHXteCBBFvJfFpLZJ4VP0fP7PQ35/view?usp=sharing</t>
   </si>
   <si>
-    <t>Check the main transition/state path: company, employee, absence request</t>
-  </si>
-  <si>
-    <t>Check the creating new absence request</t>
-  </si>
-  <si>
     <t>TOM_CHL_7</t>
   </si>
   <si>
@@ -3056,10 +3028,142 @@
     <t>Check the creating new absence request for itself (and for dependents employees)</t>
   </si>
   <si>
-    <t xml:space="preserve">Check the feedback form working </t>
-  </si>
-  <si>
     <t>TOM_CHL_12</t>
+  </si>
+  <si>
+    <t>Check the main transition/state path: company, employee, absence request flow</t>
+  </si>
+  <si>
+    <t>Check the feedback form work</t>
+  </si>
+  <si>
+    <t>In the two differents browsers log in the admin's accaunt and the other  user's account.</t>
+  </si>
+  <si>
+    <t>The absence requests send for the inactive logged out user and never receive</t>
+  </si>
+  <si>
+    <t>Verify if the assigned administrators are not able to delete the first administrator's account</t>
+  </si>
+  <si>
+    <t>TOM_CHL_13</t>
+  </si>
+  <si>
+    <t>There is the company account with two users: admin (account's creator) and assigned admin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. In the admin's account open the employee details clicking on the second user's name (right sidebar is open)
+2.  Switch on the edit mode clicking on the pencil icon
+3. Set as the end of employment the date in the past and save the changes
+4. Open the other account (inactivated) and make new absence </t>
+  </si>
+  <si>
+    <t>1. In the assigned admin's account open the employee details clicking on the admin's (creator) name (right sidebar is open)
+2.  Switch on the edit mode clicking on the pencil icon
+3. Set as the end of employment the  date in the past and save the changes
+4. Open the admin (creator) account (inactivated) and log out
+5. Return to the assigned admin's account and make the new absence request</t>
+  </si>
+  <si>
+    <t>The absence request doesn't send, because the approving account is inactive.</t>
+  </si>
+  <si>
+    <t>The absence request sent, but there is no way to approve or reject it, because the approving account is inactive and can't log in.</t>
+  </si>
+  <si>
+    <t>BR12</t>
+  </si>
+  <si>
+    <t>The logged out inactive admin (or just user) can't log in until his account is active. And if the only one active user left isn't admin but just an employee (without extra rights like changing status), there is no way to handle the problem and there is no way to manage the account (because no admin left and no one is able to assign the new admin).</t>
+  </si>
+  <si>
+    <t>BR11
+BR12</t>
+  </si>
+  <si>
+    <t>Check the absence request flow with inactivating users</t>
+  </si>
+  <si>
+    <t>Administrator has access to the whole company set up including company deleting</t>
+  </si>
+  <si>
+    <t>But he can change the first admin's status and make him inactive (not able to log in again). And he can delete the company account.</t>
+  </si>
+  <si>
+    <t>There are tree types of user roles (administrator, superwiser, common user), but the first administrator who created the company account has more rights then others administrators who were assigned. Requests from users without supewisers handle by the administrator-creator and other administrators doesn't see the requests. At the same time the new assigned administrators have rights to delete the company, for example.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1A4JmVmutlocOThtn3cv5a9yueg0ky53L/view?usp=sharing
+https://drive.google.com/file/d/1DzAkH-Tplu7H7esMwlKe3npCTL2JuDa8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 1:
+Error message "Failed to delete user"
+Case 2:
+Error message "Failed to delete company account"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 1:
+Error message "Failed to delete user"
+Case 2:
+Succes message "Cpmpany account has been deleted"
+</t>
+  </si>
+  <si>
+    <t>Case 1:
+1.  In the assigned admin's account open the employee details clicking on the admin's (account creator) name (right sidebar is open)
+2. Find the tree dots menu and click on the item "Delete employee" (see the attachments)
+Case 2:
+1.  In the assigned admin's account open the General settings
+2. Find the danger zone and click on "Delete company account"
+3. Paste the company name and send.</t>
+  </si>
+  <si>
+    <t>BR14</t>
+  </si>
+  <si>
+    <t>Inactive user has an access to the account's functionality until he logged out</t>
+  </si>
+  <si>
+    <t>User status can be changed (active/inactive)</t>
+  </si>
+  <si>
+    <t>TOM45
+TOM46</t>
+  </si>
+  <si>
+    <t>"Team view" contains the current user's team (by department) including the current user or the list of dependent employees (if the current user is admin)</t>
+  </si>
+  <si>
+    <t>Employees - list of dependent employees. Common employees don't have this page</t>
+  </si>
+  <si>
+    <t>Absences' HeatMap - the annual pattern of employees' absences. Common employees don't have this page</t>
+  </si>
+  <si>
+    <t>TOM50</t>
+  </si>
+  <si>
+    <t>TOM51</t>
+  </si>
+  <si>
+    <t>Team view page can be hidden from the superwisers and other employees by the administrator in General settings</t>
+  </si>
+  <si>
+    <t>"My calendar" view contains the current user's information: statistics, calendar with public holidays and team's absences, current user absences list</t>
+  </si>
+  <si>
+    <t>BR13</t>
+  </si>
+  <si>
+    <t>My calendar page is open</t>
+  </si>
+  <si>
+    <t>On the My calendar page you can not see the day of absence on the calendar if that day is highlighted already as a public holiday (with dark blue) or as a weekend (light blue)</t>
+  </si>
+  <si>
+    <t>My calendar: user can't see the absence highlighted if it's a public holiday or weekend</t>
   </si>
 </sst>
 </file>
@@ -4358,6 +4462,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="50" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4442,9 +4549,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Акцент1" xfId="6" builtinId="29"/>
@@ -4459,7 +4563,231 @@
     <cellStyle name="Текст предупреждения" xfId="10" builtinId="11"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="520">
+  <dxfs count="552">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9717,89 +10045,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="100">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101">
         <v>45558</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="101" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
@@ -9850,7 +10178,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="45" customFormat="1" ht="346.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>656</v>
       </c>
       <c r="B8" s="76" t="s">
@@ -9885,7 +10213,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="57" t="s">
         <v>411</v>
       </c>
@@ -9914,7 +10242,7 @@
       <c r="K9" s="80"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="57" t="s">
         <v>411</v>
       </c>
@@ -9943,7 +10271,7 @@
       <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="57" t="s">
         <v>411</v>
       </c>
@@ -9972,7 +10300,7 @@
       <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="57" t="s">
         <v>411</v>
       </c>
@@ -10001,7 +10329,7 @@
       <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="57" t="s">
         <v>411</v>
       </c>
@@ -10030,7 +10358,7 @@
       <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="57" t="s">
         <v>411</v>
       </c>
@@ -10059,7 +10387,7 @@
       <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="57" t="s">
         <v>411</v>
       </c>
@@ -10088,7 +10416,7 @@
       <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="57" t="s">
         <v>411</v>
       </c>
@@ -10117,7 +10445,7 @@
       <c r="K16" s="80"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="57" t="s">
         <v>411</v>
       </c>
@@ -10146,7 +10474,7 @@
       <c r="K17" s="80"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="57" t="s">
         <v>411</v>
       </c>
@@ -10175,7 +10503,7 @@
       <c r="K18" s="80"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="57" t="s">
         <v>411</v>
       </c>
@@ -10204,7 +10532,7 @@
       <c r="K19" s="80"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="57" t="s">
         <v>411</v>
       </c>
@@ -10233,7 +10561,7 @@
       <c r="K20" s="80"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="57" t="s">
         <v>411</v>
       </c>
@@ -10262,7 +10590,7 @@
       <c r="K21" s="80"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="57" t="s">
         <v>411</v>
       </c>
@@ -10291,7 +10619,7 @@
       <c r="K22" s="80"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="57" t="s">
         <v>411</v>
       </c>
@@ -10320,7 +10648,7 @@
       <c r="K23" s="80"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="57" t="s">
         <v>411</v>
       </c>
@@ -10349,7 +10677,7 @@
       <c r="K24" s="80"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="57" t="s">
         <v>411</v>
       </c>
@@ -10378,7 +10706,7 @@
       <c r="K25" s="80"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="57" t="s">
         <v>411</v>
       </c>
@@ -10407,7 +10735,7 @@
       <c r="K26" s="80"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="57" t="s">
         <v>411</v>
       </c>
@@ -10436,7 +10764,7 @@
       <c r="K27" s="80"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="90" t="s">
         <v>411</v>
       </c>
@@ -10465,7 +10793,7 @@
       <c r="K28" s="92"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="97"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="58" t="s">
         <v>202</v>
       </c>
@@ -10498,7 +10826,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="58" t="s">
         <v>273</v>
       </c>
@@ -10530,8 +10858,8 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="45" customFormat="1" ht="189.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="97"/>
+    <row r="31" spans="1:11" s="45" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="98"/>
       <c r="B31" s="58" t="s">
         <v>274</v>
       </c>
@@ -10562,7 +10890,7 @@
       <c r="K31" s="80"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="252" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="58" t="s">
         <v>281</v>
       </c>
@@ -10593,7 +10921,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="57" t="s">
         <v>293</v>
       </c>
@@ -10624,7 +10952,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="57" t="s">
         <v>300</v>
       </c>
@@ -10657,7 +10985,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="57" t="s">
         <v>300</v>
       </c>
@@ -10690,7 +11018,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="57" t="s">
         <v>300</v>
       </c>
@@ -10721,7 +11049,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="189" x14ac:dyDescent="0.25">
-      <c r="A37" s="97"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="57" t="s">
         <v>312</v>
       </c>
@@ -10754,7 +11082,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="57" t="s">
         <v>317</v>
       </c>
@@ -10787,7 +11115,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="57" t="s">
         <v>317</v>
       </c>
@@ -10820,7 +11148,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="57" t="s">
         <v>317</v>
       </c>
@@ -10851,7 +11179,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="97"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="57" t="s">
         <v>317</v>
       </c>
@@ -10882,7 +11210,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="97"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="57" t="s">
         <v>317</v>
       </c>
@@ -10913,7 +11241,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="97"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="57" t="s">
         <v>317</v>
       </c>
@@ -10946,7 +11274,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
+      <c r="A44" s="98"/>
       <c r="B44" s="57" t="s">
         <v>317</v>
       </c>
@@ -10977,7 +11305,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
+      <c r="A45" s="98"/>
       <c r="B45" s="57" t="s">
         <v>317</v>
       </c>
@@ -11008,7 +11336,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="57" t="s">
         <v>357</v>
       </c>
@@ -11039,7 +11367,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
+      <c r="A47" s="98"/>
       <c r="B47" s="57" t="s">
         <v>357</v>
       </c>
@@ -11070,7 +11398,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" s="45" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A48" s="97"/>
+      <c r="A48" s="98"/>
       <c r="B48" s="57" t="s">
         <v>357</v>
       </c>
@@ -11101,7 +11429,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" s="45" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A49" s="97"/>
+      <c r="A49" s="98"/>
       <c r="B49" s="57" t="s">
         <v>357</v>
       </c>
@@ -11132,7 +11460,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" s="45" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
+      <c r="A50" s="98"/>
       <c r="B50" s="57" t="s">
         <v>357</v>
       </c>
@@ -11163,7 +11491,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" s="45" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="97"/>
+      <c r="A51" s="98"/>
       <c r="B51" s="57" t="s">
         <v>377</v>
       </c>
@@ -11194,7 +11522,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" s="45" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A52" s="97"/>
+      <c r="A52" s="98"/>
       <c r="B52" s="57" t="s">
         <v>74</v>
       </c>
@@ -11225,7 +11553,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" s="45" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A53" s="97"/>
+      <c r="A53" s="98"/>
       <c r="B53" s="57" t="s">
         <v>74</v>
       </c>
@@ -11256,7 +11584,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" s="45" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="97"/>
+      <c r="A54" s="98"/>
       <c r="B54" s="57" t="s">
         <v>75</v>
       </c>
@@ -11287,7 +11615,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" s="45" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="97"/>
+      <c r="A55" s="98"/>
       <c r="B55" s="57" t="s">
         <v>81</v>
       </c>
@@ -11316,7 +11644,7 @@
       <c r="K55" s="80"/>
     </row>
     <row r="56" spans="1:11" s="45" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
+      <c r="A56" s="98"/>
       <c r="B56" s="57" t="s">
         <v>85</v>
       </c>
@@ -11345,7 +11673,7 @@
       <c r="K56" s="80"/>
     </row>
     <row r="57" spans="1:11" s="45" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="97"/>
+      <c r="A57" s="98"/>
       <c r="B57" s="57" t="s">
         <v>79</v>
       </c>
@@ -11374,7 +11702,7 @@
       <c r="K57" s="80"/>
     </row>
     <row r="58" spans="1:11" s="45" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="97"/>
+      <c r="A58" s="98"/>
       <c r="B58" s="57" t="s">
         <v>25</v>
       </c>
@@ -11403,7 +11731,7 @@
       <c r="K58" s="80"/>
     </row>
     <row r="59" spans="1:11" s="45" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="97"/>
+      <c r="A59" s="98"/>
       <c r="B59" s="57" t="s">
         <v>415</v>
       </c>
@@ -11434,7 +11762,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" s="45" customFormat="1" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="98"/>
+      <c r="A60" s="99"/>
       <c r="B60" s="82" t="s">
         <v>415</v>
       </c>
@@ -11463,7 +11791,7 @@
       <c r="K60" s="86"/>
     </row>
     <row r="61" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="96" t="s">
+      <c r="A61" s="97" t="s">
         <v>490</v>
       </c>
       <c r="B61" s="76" t="s">
@@ -11494,7 +11822,7 @@
       <c r="K61" s="87"/>
     </row>
     <row r="62" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="97"/>
+      <c r="A62" s="98"/>
       <c r="B62" s="57" t="s">
         <v>89</v>
       </c>
@@ -11523,7 +11851,7 @@
       <c r="K62" s="80"/>
     </row>
     <row r="63" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="97"/>
+      <c r="A63" s="98"/>
       <c r="B63" s="57" t="s">
         <v>87</v>
       </c>
@@ -11554,7 +11882,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" s="45" customFormat="1" ht="252" x14ac:dyDescent="0.25">
-      <c r="A64" s="97"/>
+      <c r="A64" s="98"/>
       <c r="B64" s="57" t="s">
         <v>88</v>
       </c>
@@ -11583,7 +11911,7 @@
       <c r="K64" s="80"/>
     </row>
     <row r="65" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="97"/>
+      <c r="A65" s="98"/>
       <c r="B65" s="57" t="s">
         <v>90</v>
       </c>
@@ -11612,7 +11940,7 @@
       <c r="K65" s="80"/>
     </row>
     <row r="66" spans="1:11" s="45" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="97"/>
+      <c r="A66" s="98"/>
       <c r="B66" s="57" t="s">
         <v>89</v>
       </c>
@@ -11641,7 +11969,7 @@
       <c r="K66" s="80"/>
     </row>
     <row r="67" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="97"/>
+      <c r="A67" s="98"/>
       <c r="B67" s="57" t="s">
         <v>89</v>
       </c>
@@ -11670,7 +11998,7 @@
       <c r="K67" s="80"/>
     </row>
     <row r="68" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="97"/>
+      <c r="A68" s="98"/>
       <c r="B68" s="57" t="s">
         <v>89</v>
       </c>
@@ -11699,7 +12027,7 @@
       <c r="K68" s="80"/>
     </row>
     <row r="69" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="97"/>
+      <c r="A69" s="98"/>
       <c r="B69" s="57" t="s">
         <v>91</v>
       </c>
@@ -11728,7 +12056,7 @@
       <c r="K69" s="80"/>
     </row>
     <row r="70" spans="1:11" s="45" customFormat="1" ht="252" x14ac:dyDescent="0.25">
-      <c r="A70" s="97"/>
+      <c r="A70" s="98"/>
       <c r="B70" s="57" t="s">
         <v>570</v>
       </c>
@@ -11757,7 +12085,7 @@
       <c r="K70" s="80"/>
     </row>
     <row r="71" spans="1:11" s="45" customFormat="1" ht="252" x14ac:dyDescent="0.25">
-      <c r="A71" s="97"/>
+      <c r="A71" s="98"/>
       <c r="B71" s="57" t="s">
         <v>570</v>
       </c>
@@ -11786,7 +12114,7 @@
       <c r="K71" s="80"/>
     </row>
     <row r="72" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="97"/>
+      <c r="A72" s="98"/>
       <c r="B72" s="57" t="s">
         <v>570</v>
       </c>
@@ -11817,7 +12145,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="97"/>
+      <c r="A73" s="98"/>
       <c r="B73" s="57" t="s">
         <v>570</v>
       </c>
@@ -11846,7 +12174,7 @@
       <c r="K73" s="80"/>
     </row>
     <row r="74" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="97"/>
+      <c r="A74" s="98"/>
       <c r="B74" s="57" t="s">
         <v>570</v>
       </c>
@@ -11875,7 +12203,7 @@
       <c r="K74" s="80"/>
     </row>
     <row r="75" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="97"/>
+      <c r="A75" s="98"/>
       <c r="B75" s="57" t="s">
         <v>570</v>
       </c>
@@ -11906,7 +12234,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="97"/>
+      <c r="A76" s="98"/>
       <c r="B76" s="57" t="s">
         <v>570</v>
       </c>
@@ -11935,7 +12263,7 @@
       <c r="K76" s="80"/>
     </row>
     <row r="77" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="97"/>
+      <c r="A77" s="98"/>
       <c r="B77" s="57" t="s">
         <v>570</v>
       </c>
@@ -11964,7 +12292,7 @@
       <c r="K77" s="80"/>
     </row>
     <row r="78" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="97"/>
+      <c r="A78" s="98"/>
       <c r="B78" s="57" t="s">
         <v>570</v>
       </c>
@@ -11993,7 +12321,7 @@
       <c r="K78" s="80"/>
     </row>
     <row r="79" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="97"/>
+      <c r="A79" s="98"/>
       <c r="B79" s="57" t="s">
         <v>570</v>
       </c>
@@ -12022,7 +12350,7 @@
       <c r="K79" s="80"/>
     </row>
     <row r="80" spans="1:11" s="45" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="97"/>
+      <c r="A80" s="98"/>
       <c r="B80" s="57" t="s">
         <v>74</v>
       </c>
@@ -12053,7 +12381,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" s="45" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="97"/>
+      <c r="A81" s="98"/>
       <c r="B81" s="57" t="s">
         <v>92</v>
       </c>
@@ -12084,7 +12412,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" s="45" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="97"/>
+      <c r="A82" s="98"/>
       <c r="B82" s="57" t="s">
         <v>93</v>
       </c>
@@ -12113,7 +12441,7 @@
       <c r="K82" s="80"/>
     </row>
     <row r="83" spans="1:11" s="45" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="97"/>
+      <c r="A83" s="98"/>
       <c r="B83" s="57" t="s">
         <v>94</v>
       </c>
@@ -12142,7 +12470,7 @@
       <c r="K83" s="80"/>
     </row>
     <row r="84" spans="1:11" s="45" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="97"/>
+      <c r="A84" s="98"/>
       <c r="B84" s="57" t="s">
         <v>94</v>
       </c>
@@ -12171,7 +12499,7 @@
       <c r="K84" s="80"/>
     </row>
     <row r="85" spans="1:11" s="45" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="97"/>
+      <c r="A85" s="98"/>
       <c r="B85" s="57" t="s">
         <v>94</v>
       </c>
@@ -12200,7 +12528,7 @@
       <c r="K85" s="80"/>
     </row>
     <row r="86" spans="1:11" s="45" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="97"/>
+      <c r="A86" s="98"/>
       <c r="B86" s="57" t="s">
         <v>94</v>
       </c>
@@ -12233,7 +12561,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" s="45" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="97"/>
+      <c r="A87" s="98"/>
       <c r="B87" s="57" t="s">
         <v>95</v>
       </c>
@@ -12262,7 +12590,7 @@
       <c r="K87" s="80"/>
     </row>
     <row r="88" spans="1:11" s="45" customFormat="1" ht="237" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="98"/>
+      <c r="A88" s="99"/>
       <c r="B88" s="82" t="s">
         <v>94</v>
       </c>
@@ -12583,866 +12911,866 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="519" priority="343" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="343" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="344" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="517" priority="341" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="341" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="548" priority="342" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="515" priority="265" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="265" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="546" priority="266" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="513" priority="251" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="251" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="252" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="511" priority="245" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="245" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="542" priority="246" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="509" priority="235" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="235" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="540" priority="236" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="507" priority="233" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="233" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="538" priority="234" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="505" priority="231" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="231" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="536" priority="232" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="503" priority="229" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="229" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="534" priority="230" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="501" priority="227" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="227" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="532" priority="228" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="499" priority="225" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="225" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="530" priority="226" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="497" priority="223" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="223" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="528" priority="224" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="495" priority="221" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="221" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="526" priority="222" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="493" priority="219" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="219" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="524" priority="220" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="491" priority="217" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="217" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="522" priority="218" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="489" priority="215" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="215" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="520" priority="216" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="487" priority="213" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="213" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="518" priority="214" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="485" priority="209" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="209" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="516" priority="210" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="483" priority="195" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="195" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="514" priority="196" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="481" priority="193" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="193" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="512" priority="194" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="479" priority="191" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="191" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="510" priority="192" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="477" priority="189" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="189" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="508" priority="190" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="475" priority="187" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="187" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="506" priority="188" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="473" priority="185" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="185" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="504" priority="186" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="471" priority="183" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="183" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="502" priority="184" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="469" priority="181" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="181" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="500" priority="182" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="467" priority="179" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="179" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="498" priority="180" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="465" priority="177" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="177" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="178" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="463" priority="175" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="175" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="494" priority="176" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="461" priority="173" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="173" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="492" priority="174" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="459" priority="171" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="171" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="490" priority="172" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="457" priority="169" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="169" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="488" priority="170" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="455" priority="167" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="167" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="168" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="453" priority="165" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="165" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="484" priority="166" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="451" priority="163" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="163" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="482" priority="164" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="449" priority="161" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="161" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="480" priority="162" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="447" priority="159" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="159" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="478" priority="160" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="445" priority="157" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="157" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="476" priority="158" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="443" priority="155" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="155" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="156" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="441" priority="153" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="153" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="154" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="439" priority="151" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="151" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="152" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="437" priority="149" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="149" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="150" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="435" priority="147" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="147" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="148" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="433" priority="145" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="145" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="464" priority="146" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="431" priority="143" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="143" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="462" priority="144" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="429" priority="141" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="141" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="142" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="427" priority="139" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="139" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="458" priority="140" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="425" priority="137" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="137" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="456" priority="138" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="423" priority="135" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="135" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="136" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="421" priority="133" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="133" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="452" priority="134" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="419" priority="131" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="131" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="450" priority="132" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="417" priority="129" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="129" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="130" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="415" priority="127" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="127" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="128" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="413" priority="115" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="115" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="116" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="411" priority="119" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="119" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="120" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="409" priority="123" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="123" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="440" priority="124" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="407" priority="121" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="121" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="122" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="405" priority="109" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="109" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="110" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="403" priority="117" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="117" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="434" priority="118" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="401" priority="113" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="113" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="114" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="399" priority="111" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="111" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="112" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="397" priority="107" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="107" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="428" priority="108" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="395" priority="99" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="99" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="100" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="393" priority="97" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="97" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="98" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="391" priority="95" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="95" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="422" priority="96" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="389" priority="93" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="93" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="94" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="387" priority="91" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="91" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="92" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="385" priority="89" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="89" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="416" priority="90" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="383" priority="87" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="87" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="88" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="381" priority="85" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="85" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="86" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="379" priority="83" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="83" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="410" priority="84" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="377" priority="81" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="81" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="82" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="375" priority="79" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="79" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="80" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="373" priority="77" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="77" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="78" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="371" priority="75" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="75" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="402" priority="76" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="369" priority="73" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="73" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="74" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="367" priority="71" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="71" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="398" priority="72" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="365" priority="69" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="69" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="70" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="363" priority="67" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="67" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="68" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="361" priority="65" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="65" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="392" priority="66" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="359" priority="63" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="63" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="64" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="357" priority="61" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="61" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="62" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="355" priority="59" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="59" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="386" priority="60" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="353" priority="57" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="57" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="58" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="351" priority="55" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="55" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="56" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="349" priority="51" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="51" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="380" priority="52" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="347" priority="49" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="49" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="50" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="345" priority="47" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="47" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="48" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="343" priority="45" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="45" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="46" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="341" priority="43" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="43" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="44" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="339" priority="35" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="35" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="36" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="337" priority="39" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="39" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="40" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="335" priority="37" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="37" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="38" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="333" priority="33" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="33" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="34" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="331" priority="31" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="31" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="32" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="329" priority="29" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="29" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="30" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="327" priority="27" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="27" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="28" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="325" priority="23" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="23" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="24" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="323" priority="21" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="21" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="22" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="321" priority="19" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="19" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="20" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="319" priority="17" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="17" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="18" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="317" priority="13" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="13" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="14" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="315" priority="11" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="11" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="12" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="313" priority="9" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="9" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="10" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="311" priority="7" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="7" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="309" priority="5" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="307" priority="3" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="3" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="305" priority="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13587,8 +13915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13604,69 +13932,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101">
         <v>45558</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
@@ -13788,23 +14116,23 @@
     </row>
     <row r="12" spans="1:7" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="57" t="s">
-        <v>722</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="45" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -13812,42 +14140,46 @@
         <v>104</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D13" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="57" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="G13" s="47"/>
     </row>
-    <row r="14" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+    <row r="14" spans="1:7" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>769</v>
+      </c>
       <c r="B14" s="46" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="G14" s="57" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="15" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
       <c r="B15" s="46" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="D15" s="48" t="s">
         <v>11</v>
@@ -13859,12 +14191,14 @@
     <row r="16" spans="1:7" s="45" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="46" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>745</v>
-      </c>
-      <c r="D16" s="48"/>
+        <v>737</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
@@ -13872,10 +14206,10 @@
     <row r="17" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="46" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>11</v>
@@ -13887,10 +14221,10 @@
     <row r="18" spans="1:7" s="45" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="46" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>11</v>
@@ -13902,10 +14236,10 @@
     <row r="19" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
       <c r="B19" s="46" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D19" s="48" t="s">
         <v>11</v>
@@ -13914,14 +14248,24 @@
       <c r="F19" s="46"/>
       <c r="G19" s="47"/>
     </row>
-    <row r="20" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="45" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="46" t="s">
+        <v>749</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>748</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>760</v>
+      </c>
       <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="G20" s="57" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
@@ -14744,866 +15088,866 @@
     <mergeCell ref="E3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="303" priority="225" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="225" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="226" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="301" priority="223" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="223" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="224" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="299" priority="221" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="221" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="222" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="297" priority="219" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="219" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="220" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="295" priority="217" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="217" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="218" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="293" priority="215" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="215" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="216" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="291" priority="213" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="213" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="214" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="289" priority="211" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="211" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="212" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="287" priority="209" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="209" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="210" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="285" priority="207" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="207" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="208" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="283" priority="205" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="205" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="206" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="281" priority="203" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="203" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="204" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="cellIs" dxfId="279" priority="201" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="201" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="202" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="277" priority="199" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="199" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="200" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
-    <cfRule type="cellIs" dxfId="275" priority="197" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="197" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="198" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="273" priority="195" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="195" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="196" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="271" priority="193" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="193" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="194" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="269" priority="191" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="191" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="192" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="267" priority="189" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="189" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="190" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="cellIs" dxfId="265" priority="187" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="187" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="188" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="263" priority="185" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="185" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="186" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="261" priority="183" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="183" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="184" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95">
-    <cfRule type="cellIs" dxfId="259" priority="181" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="181" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="182" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="257" priority="179" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="179" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="180" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="255" priority="177" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="177" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="178" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="cellIs" dxfId="253" priority="175" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="175" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="176" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="cellIs" dxfId="251" priority="173" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="173" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="174" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="249" priority="171" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="171" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="172" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="cellIs" dxfId="247" priority="169" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="169" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="170" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="245" priority="167" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="167" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="168" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="243" priority="165" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="165" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="166" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104">
-    <cfRule type="cellIs" dxfId="241" priority="163" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="163" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="164" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="cellIs" dxfId="239" priority="161" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="161" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="162" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="cellIs" dxfId="237" priority="159" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="159" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="160" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="cellIs" dxfId="235" priority="157" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="157" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="158" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="cellIs" dxfId="233" priority="155" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="155" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="156" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
-    <cfRule type="cellIs" dxfId="231" priority="153" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="153" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="154" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="cellIs" dxfId="229" priority="151" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="151" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="152" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111">
-    <cfRule type="cellIs" dxfId="227" priority="149" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="149" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="150" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112">
-    <cfRule type="cellIs" dxfId="225" priority="147" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="147" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="148" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113">
-    <cfRule type="cellIs" dxfId="223" priority="145" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="145" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="146" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="221" priority="143" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="143" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="144" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="219" priority="141" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="141" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="142" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="217" priority="139" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="139" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="140" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="215" priority="137" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="137" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="138" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="213" priority="135" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="135" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="136" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="211" priority="133" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="133" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="134" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="209" priority="131" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="131" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="132" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="207" priority="129" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="129" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="130" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="205" priority="127" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="127" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="128" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="203" priority="125" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="125" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="126" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="201" priority="123" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="123" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="124" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="199" priority="113" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="113" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="114" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="197" priority="117" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="117" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="118" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="195" priority="121" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="121" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="122" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="193" priority="119" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="119" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="120" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="191" priority="107" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="107" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="108" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="189" priority="115" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="115" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="116" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="187" priority="111" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="111" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="112" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="185" priority="109" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="109" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="110" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="183" priority="105" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="105" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="106" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="181" priority="97" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="97" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="98" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="179" priority="95" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="95" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="96" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="177" priority="93" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="93" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="94" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="175" priority="91" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="91" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="92" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="173" priority="89" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="89" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="90" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="171" priority="87" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="87" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="88" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="169" priority="85" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="85" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="86" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="167" priority="83" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="83" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="84" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="165" priority="81" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="81" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="82" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="163" priority="79" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="79" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="80" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="161" priority="77" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="77" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="78" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="159" priority="75" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="75" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="76" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="157" priority="73" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="73" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="74" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="155" priority="71" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="71" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="72" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="153" priority="69" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="69" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="70" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="151" priority="67" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="67" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="68" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="149" priority="65" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="65" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="66" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="147" priority="63" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="63" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="64" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="145" priority="61" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="61" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="62" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="143" priority="59" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="59" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="60" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="141" priority="57" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="57" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="58" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="139" priority="55" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="55" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="56" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="137" priority="53" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="53" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="54" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="135" priority="51" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="51" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="52" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="133" priority="49" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="49" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="50" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="43" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="44" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="129" priority="47" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="47" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="48" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="127" priority="45" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="45" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="46" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="125" priority="37" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="37" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="38" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="123" priority="35" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="35" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="36" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="121" priority="33" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="33" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="34" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="119" priority="31" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="31" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="32" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="117" priority="29" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="29" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="30" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="cellIs" dxfId="115" priority="27" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="27" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="28" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="cellIs" dxfId="113" priority="25" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="25" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="26" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="111" priority="23" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="23" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="24" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="109" priority="21" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="21" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="22" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="107" priority="19" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="19" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="20" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="105" priority="17" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="17" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="18" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="103" priority="15" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="15" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="16" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="101" priority="13" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="13" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="14" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="7" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="8" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="97" priority="11" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="11" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="12" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="9" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="10" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="91" priority="5" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15622,10 +15966,13 @@
     <hyperlink ref="G8" location="'Bag reports'!A21" display="BR7"/>
     <hyperlink ref="G9" location="'Bag reports'!A21" display="BR7"/>
     <hyperlink ref="G10" location="'Bag reports'!A22" display="BR8"/>
-    <hyperlink ref="G12" location="'Bag reports'!A27" display="EH10"/>
+    <hyperlink ref="G12" location="'Bag reports'!A29" display="BR13"/>
     <hyperlink ref="A12" location="Requirements!B49" display="Requirements!B49"/>
     <hyperlink ref="F13" r:id="rId2"/>
     <hyperlink ref="A13" location="Requirements!B52" display="TOM45"/>
+    <hyperlink ref="G14" location="'Bag reports'!A27" display="'Bag reports'!A27"/>
+    <hyperlink ref="G20" location="'Bag reports'!A29" display="BR13"/>
+    <hyperlink ref="A14" location="Requirements!B52" display="Requirements!B52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15638,7 +15985,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -15653,46 +16000,46 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="106"/>
+      <c r="C1" s="107"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107">
+      <c r="B2" s="108">
         <v>45558</v>
       </c>
-      <c r="C2" s="108"/>
+      <c r="C2" s="109"/>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="110"/>
+      <c r="C3" s="111"/>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="107"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="106"/>
+      <c r="C5" s="107"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
@@ -15711,7 +16058,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="103" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="67"/>
@@ -15720,7 +16067,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="103"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
@@ -15729,7 +16076,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -15738,7 +16085,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -15747,7 +16094,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="103"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
@@ -15756,7 +16103,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
@@ -15765,7 +16112,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="103"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -15774,7 +16121,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="103"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
@@ -15783,7 +16130,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
@@ -15792,7 +16139,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="103"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
@@ -15801,7 +16148,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="103"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
@@ -15810,7 +16157,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="103"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
@@ -15819,7 +16166,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="103"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
@@ -15828,7 +16175,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="103"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
@@ -15837,7 +16184,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="103"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="5" t="s">
         <v>74</v>
       </c>
@@ -15846,7 +16193,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="103"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="6" t="s">
         <v>75</v>
       </c>
@@ -15855,7 +16202,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="103"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="6" t="s">
         <v>76</v>
       </c>
@@ -15864,7 +16211,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="103"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="6" t="s">
         <v>77</v>
       </c>
@@ -15873,7 +16220,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="103"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
@@ -15882,7 +16229,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="103"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="6" t="s">
         <v>79</v>
       </c>
@@ -15891,7 +16238,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="103"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="6" t="s">
         <v>80</v>
       </c>
@@ -15900,7 +16247,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="103"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="6" t="s">
         <v>81</v>
       </c>
@@ -15909,7 +16256,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="103"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="6" t="s">
         <v>82</v>
       </c>
@@ -15918,7 +16265,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="103"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="6" t="s">
         <v>83</v>
       </c>
@@ -15927,7 +16274,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="103"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="6" t="s">
         <v>84</v>
       </c>
@@ -15936,7 +16283,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="104"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="72" t="s">
         <v>85</v>
       </c>
@@ -15945,7 +16292,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="103" t="s">
         <v>711</v>
       </c>
       <c r="B34" s="67" t="s">
@@ -15956,7 +16303,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="103"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="6" t="s">
         <v>87</v>
       </c>
@@ -15965,7 +16312,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
+      <c r="A36" s="104"/>
       <c r="B36" s="6" t="s">
         <v>88</v>
       </c>
@@ -15974,7 +16321,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="6" t="s">
         <v>89</v>
       </c>
@@ -15983,7 +16330,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="103"/>
+      <c r="A38" s="104"/>
       <c r="B38" s="6" t="s">
         <v>90</v>
       </c>
@@ -15992,7 +16339,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="103"/>
+      <c r="A39" s="104"/>
       <c r="B39" s="6" t="s">
         <v>91</v>
       </c>
@@ -16001,7 +16348,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="103"/>
+      <c r="A40" s="104"/>
       <c r="B40" s="6" t="s">
         <v>92</v>
       </c>
@@ -16010,7 +16357,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
+      <c r="A41" s="104"/>
       <c r="B41" s="6" t="s">
         <v>93</v>
       </c>
@@ -16019,7 +16366,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="103"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="5" t="s">
         <v>94</v>
       </c>
@@ -16028,7 +16375,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="103"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="6" t="s">
         <v>95</v>
       </c>
@@ -16037,7 +16384,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="103"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="6" t="s">
         <v>96</v>
       </c>
@@ -16046,7 +16393,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="104"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="72" t="s">
         <v>97</v>
       </c>
@@ -16091,7 +16438,7 @@
         <v>101</v>
       </c>
       <c r="C49" s="68" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -16100,7 +16447,7 @@
         <v>102</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>720</v>
+        <v>759</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -16109,18 +16456,18 @@
         <v>103</v>
       </c>
       <c r="C51" s="73" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="124" t="s">
-        <v>739</v>
+      <c r="C52" s="96" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -16128,38 +16475,54 @@
       <c r="B53" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="3"/>
+      <c r="B57" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
+      <c r="B58" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
@@ -16393,9 +16756,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -16412,84 +16775,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113">
         <v>45558</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="113" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
@@ -17106,82 +17469,122 @@
       <c r="J26" s="32"/>
       <c r="K26" s="62"/>
     </row>
-    <row r="27" spans="1:11" ht="376.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="320.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>722</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="32" t="s">
+        <v>746</v>
+      </c>
       <c r="C27" s="32" t="s">
+        <v>767</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>751</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>723</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="32" t="s">
+        <v>724</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>726</v>
+      </c>
       <c r="H27" s="32" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>466</v>
-      </c>
-      <c r="J27" s="32"/>
+        <v>468</v>
+      </c>
+      <c r="J27" s="57" t="s">
+        <v>105</v>
+      </c>
       <c r="K27" s="62"/>
     </row>
-    <row r="28" spans="1:11" ht="320.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="301.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>727</v>
+        <v>750</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>730</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>732</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="G28" s="32"/>
       <c r="H28" s="32" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="I28" s="60" t="s">
         <v>468</v>
       </c>
-      <c r="J28" s="32"/>
+      <c r="J28" s="57" t="s">
+        <v>105</v>
+      </c>
       <c r="K28" s="62"/>
     </row>
-    <row r="29" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="64"/>
+    <row r="29" spans="1:11" ht="357.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>750</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>721</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>762</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="I29" s="60" t="s">
+        <v>468</v>
+      </c>
       <c r="J29" s="32"/>
       <c r="K29" s="62"/>
     </row>
-    <row r="30" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+    <row r="30" spans="1:11" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>766</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>780</v>
+      </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="32"/>
+      <c r="H30" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="I30" s="60"/>
+      <c r="J30" s="57" t="s">
+        <v>106</v>
+      </c>
       <c r="K30" s="62"/>
     </row>
     <row r="31" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18030,286 +18433,342 @@
     <mergeCell ref="E3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="87" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="101" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="102" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="103" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="104" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="83" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="97" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="98" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="99" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="100" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="79" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="93" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="94" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="95" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="96" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="75" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="89" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="90" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="91" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="92" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="71" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="85" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="86" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="87" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="88" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="67" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="81" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="82" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="83" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="84" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="77" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="78" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="79" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="80" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="73" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="74" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="75" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="76" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="69" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="71" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="72" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="51" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="65" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="66" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="67" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="68" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="62" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="64" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="57" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="58" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="59" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="53" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="54" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="55" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="49" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="50" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="51" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="52" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="45" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="43" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="44" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="37" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="38" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="39" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="29" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="30" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="25" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
       <formula>"Major ↑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
       <formula>"Minor ↓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
       <formula>"Trivial ⁕"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+      <formula>"Critical ⛔"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+      <formula>"Major ↑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
+      <formula>"Minor ↓"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
+      <formula>"Trivial ⁕"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+      <formula>"Critical ⛔"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+      <formula>"Major ↑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+      <formula>"Minor ↓"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+      <formula>"Trivial ⁕"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>"Critical ⛔"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+      <formula>"Major ↑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"Minor ↓"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>"Trivial ⁕"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"Critical ⛔"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>"Major ↑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"Minor ↓"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"Trivial ⁕"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Critical ⛔"</formula>
     </cfRule>
@@ -18324,7 +18783,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="Critical _x000a_Major _x000a_Minor_x000a_Trivial_x000a_" sqref="I8:I28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="Critical _x000a_Major _x000a_Minor_x000a_Trivial_x000a_" sqref="I8:I30">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>
@@ -18346,6 +18805,9 @@
     <hyperlink ref="J21" location="Requirements!B46" display="TOM39"/>
     <hyperlink ref="J22" location="Requirements!B48" display="TOM41"/>
     <hyperlink ref="J24" r:id="rId3"/>
+    <hyperlink ref="J28" location="Requirements!B53" display="TOM46"/>
+    <hyperlink ref="J27" location="Requirements!B53" display="TOM46"/>
+    <hyperlink ref="J30" location="Requirements!B54" display="TOM47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -18388,10 +18850,10 @@
       <c r="D4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="117"/>
+      <c r="H4" s="118"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -18429,7 +18891,7 @@
       <c r="G6" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="115" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18449,7 +18911,7 @@
       <c r="G7" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="114"/>
+      <c r="H7" s="115"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -18467,7 +18929,7 @@
       <c r="G8" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="114" t="s">
+      <c r="H8" s="115" t="s">
         <v>144</v>
       </c>
     </row>
@@ -18487,7 +18949,7 @@
       <c r="G9" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="115"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -18582,10 +19044,10 @@
       <c r="D15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="118" t="s">
+      <c r="G15" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="H15" s="119"/>
+      <c r="H15" s="120"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -18603,7 +19065,7 @@
       <c r="G16" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="120" t="s">
+      <c r="H16" s="121" t="s">
         <v>155</v>
       </c>
     </row>
@@ -18623,7 +19085,7 @@
       <c r="G17" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="114"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
@@ -18655,7 +19117,7 @@
       <c r="G19" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="114" t="s">
+      <c r="H19" s="115" t="s">
         <v>155</v>
       </c>
     </row>
@@ -18672,7 +19134,7 @@
       <c r="G20" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="H20" s="115"/>
+      <c r="H20" s="116"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
@@ -18871,10 +19333,10 @@
   <sheetData>
     <row r="3" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="122" t="s">
         <v>510</v>
       </c>
-      <c r="B4" s="121"/>
+      <c r="B4" s="122"/>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
@@ -19046,10 +19508,10 @@
     </row>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="123" t="s">
         <v>465</v>
       </c>
-      <c r="B9" s="123"/>
+      <c r="B9" s="124"/>
     </row>
     <row r="10" spans="1:10" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
